--- a/MedicalLink/Templates/BC_104_TrichThuongFibro.xlsx
+++ b/MedicalLink/Templates/BC_104_TrichThuongFibro.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$17</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -116,7 +116,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,12 +170,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -312,12 +306,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -347,6 +335,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -651,7 +645,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A7" sqref="A7:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,72 +661,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="21"/>
+      <c r="D1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="29"/>
+      <c r="D2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="30" t="s">
         <v>7</v>
       </c>
     </row>
@@ -755,11 +749,11 @@
       <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:7" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="18">
         <f>SUM(D8:D8)</f>
         <v>0</v>
@@ -776,10 +770,10 @@
         <v>Bằng chữ: &amp;=[DATA].TONGTIENTRICH_STRING</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="1" t="s">
         <v>21</v>
       </c>
